--- a/biology/Botanique/Scrophularia/Scrophularia.xlsx
+++ b/biology/Botanique/Scrophularia/Scrophularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scrophularia
-Scrophularia (en français, les scrofulaires[1]) constitue un genre de plantes herbacées bisannuelles ou vivaces de la famille des Scrofulariacées.
+Scrophularia (en français, les scrofulaires) constitue un genre de plantes herbacées bisannuelles ou vivaces de la famille des Scrofulariacées.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Scrophularia comprend 120 espèces environ dans les régions tempérées de l'hémisphère nord[réf. nécessaire]. Parmi celles-ci on peut rencontrer en France :
 Scrophularia atrata
@@ -535,8 +549,43 @@
 Scrophularia umbrosa - Scrofulaire ailée
 Scrophularia vernalis
 Scrophularia villosa
-Liste d'espèces
-Selon Catalogue of Life                                   (9 mai 2013)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Scrophularia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scrophularia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 mai 2013) :
 Scrophularia aequilabris
 Scrophularia alaschanica
 Scrophularia atrata
@@ -594,31 +643,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Scrophularia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Scrophularia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles des papillons de nuit (hétérocères) suivants se nourrissent de scrofulaires :
 Shargacucullia scrophulariae (ou selon les classifications Cucullia scrophulariae), la Cucullie de la scrofulaire
